--- a/02Controlled library/03Support/01CM/YD-配置项状态报告.xlsx
+++ b/02Controlled library/03Support/01CM/YD-配置项状态报告.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>配置项状态报告</t>
   </si>
@@ -143,6 +143,42 @@
   </si>
   <si>
     <t>02Controlled library\03Support\01PPQA</t>
+  </si>
+  <si>
+    <t>系统架构设计说明书</t>
+  </si>
+  <si>
+    <t>2020/7/6</t>
+  </si>
+  <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>03Baseline library\01Engineering\03TS\01Analysis Design</t>
+  </si>
+  <si>
+    <t>界面原型</t>
+  </si>
+  <si>
+    <t>\03Baseline library\01Engineering\03TS\02Interface Prototype</t>
+  </si>
+  <si>
+    <t>概念模型</t>
+  </si>
+  <si>
+    <t>\03Baseline library\01Engineering\03TS\01Analysis Design</t>
+  </si>
+  <si>
+    <t>物理模型</t>
+  </si>
+  <si>
+    <t>\03Baseline library\01Engineering\03TS\03Database Design</t>
+  </si>
+  <si>
+    <t>系统分析设计模型</t>
+  </si>
+  <si>
+    <t>数据库设计说明书</t>
   </si>
   <si>
     <t>备注：配置项存放路径中显示的为相对路径，其上级目录为：</t>
@@ -157,8 +193,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -222,6 +258,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,7 +342,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -239,21 +350,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,98 +394,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -386,13 +422,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,169 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,35 +760,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,15 +793,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,17 +821,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,7 +866,7 @@
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,133 +875,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1511,7 +1547,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="12"/>
@@ -1848,82 +1884,202 @@
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="36" customHeight="1" spans="1:11">
-      <c r="A13" s="17"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="33"/>
+      <c r="D13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="18">
+        <v>44018</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="18">
+        <v>44018</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:11">
-      <c r="A14" s="17"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="32"/>
+      <c r="D14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="18">
+        <v>44021</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="18">
+        <v>44021</v>
+      </c>
+      <c r="H14" s="21">
+        <v>44021</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A15" s="17"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="33"/>
+      <c r="D15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="18">
+        <v>44021</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="18">
+        <v>44021</v>
+      </c>
+      <c r="H15" s="21">
+        <v>44021</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A16" s="17"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="32"/>
+      <c r="D16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="18">
+        <v>44021</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="18">
+        <v>44021</v>
+      </c>
+      <c r="H16" s="21">
+        <v>44021</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A17" s="17"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="32"/>
+      <c r="D17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="18">
+        <v>44021</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="18">
+        <v>44021</v>
+      </c>
+      <c r="H17" s="21">
+        <v>44021</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A18" s="17"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="32"/>
+      <c r="D18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="18">
+        <v>44021</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="18">
+        <v>44021</v>
+      </c>
+      <c r="H18" s="21">
+        <v>44021</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
       <c r="A19" s="17"/>
@@ -2017,7 +2173,7 @@
     </row>
     <row r="27" s="1" customFormat="1" spans="1:11">
       <c r="A27" s="23" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -2032,7 +2188,7 @@
     </row>
     <row r="28" s="1" customFormat="1" spans="5:5">
       <c r="E28" s="24" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2066,7 +2222,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D25:D65536">
       <formula1>"dd"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D13:D18 D19:D24">
       <formula1>"开发中,已发行,基线"</formula1>
     </dataValidation>
   </dataValidations>
